--- a/Bases_de_Dados/FootyStats/Australia A-League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Australia A-League_20242025.xlsx
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45696.23958333334</v>
+        <v>45696.23263888889</v>
       </c>
       <c r="F103" t="n">
         <v>18</v>
